--- a/tabellone.xlsx
+++ b/tabellone.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afd7038efe5c4270/Documents/UNIPR/GIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A1B1C250-2DEC-49E5-ACE3-2D63F5364489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1351CEDD-5628-4556-AE59-1FAE5E52CD49}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEBBAAB-4EBA-457F-A0EB-9268587FA6FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634F926A-6A13-40C5-AA67-ACC6D93C2767}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample" sheetId="2" r:id="rId1"/>
+    <sheet name="Esempio" sheetId="2" r:id="rId1"/>
     <sheet name="TABELLONE" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="56" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -516,7 +516,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100"/>
     </cacheField>
     <cacheField name="WebsiteName" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="website1.it"/>
+        <s v="website2.it"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="ProducerCode" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -531,7 +534,9 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-02-11T13:31:15" maxDate="2021-02-20T16:40:20"/>
     </cacheField>
     <cacheField name="VisitDateYear" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2021" maxValue="2021"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2021" maxValue="2021" count="1">
+        <n v="2021"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="VisitDateMonth" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
@@ -591,12 +596,12 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
   <r>
     <n v="1"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="counter.asp"/>
     <d v="2021-02-11T13:31:15"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="1"/>
@@ -606,12 +611,12 @@
   </r>
   <r>
     <n v="2"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll01.asp"/>
     <d v="2021-02-11T16:07:49"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -621,12 +626,12 @@
   </r>
   <r>
     <n v="3"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="VOG"/>
     <s v="LOMBARDIA"/>
     <s v="vog01.asp"/>
     <d v="2021-02-11T16:08:20"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -636,12 +641,12 @@
   </r>
   <r>
     <n v="4"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="VOG"/>
     <s v="LOMBARDIA"/>
     <s v="vog02.asp"/>
     <d v="2021-02-11T16:08:26"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -651,12 +656,12 @@
   </r>
   <r>
     <n v="5"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="VOG"/>
     <s v="LOMBARDIA"/>
     <s v="vog03.asp"/>
     <d v="2021-02-11T16:08:30"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -666,12 +671,12 @@
   </r>
   <r>
     <n v="6"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="counter.asp"/>
     <d v="2021-02-11T16:08:46"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -681,12 +686,12 @@
   </r>
   <r>
     <n v="7"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="default.asp"/>
     <d v="2021-02-11T16:18:44"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -696,12 +701,12 @@
   </r>
   <r>
     <n v="8"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SER"/>
     <s v="LOMBARDIA"/>
     <s v="ser01.asp"/>
     <d v="2021-02-11T16:18:49"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -711,12 +716,12 @@
   </r>
   <r>
     <n v="9"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SER"/>
     <s v="LOMBARDIA"/>
     <s v="ser02.asp"/>
     <d v="2021-02-11T16:18:54"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -726,12 +731,12 @@
   </r>
   <r>
     <n v="10"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SER"/>
     <s v="LOMBARDIA"/>
     <s v="ser01.asp"/>
     <d v="2021-02-11T16:18:59"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -741,12 +746,12 @@
   </r>
   <r>
     <n v="11"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SER"/>
     <s v="LOMBARDIA"/>
     <s v="ser03.asp"/>
     <d v="2021-02-11T16:19:00"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -756,12 +761,12 @@
   </r>
   <r>
     <n v="12"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SER"/>
     <s v="LOMBARDIA"/>
     <s v="ser01.asp"/>
     <d v="2021-02-11T16:19:03"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -771,12 +776,12 @@
   </r>
   <r>
     <n v="13"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SER"/>
     <s v="LOMBARDIA"/>
     <s v="ser04.asp"/>
     <d v="2021-02-11T16:19:04"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -786,12 +791,12 @@
   </r>
   <r>
     <n v="14"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SER"/>
     <s v="LOMBARDIA"/>
     <s v="ser01.asp"/>
     <d v="2021-02-11T16:19:06"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -801,12 +806,12 @@
   </r>
   <r>
     <n v="15"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="default.asp"/>
     <d v="2021-02-11T16:19:11"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -816,12 +821,12 @@
   </r>
   <r>
     <n v="16"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="TDP"/>
     <s v="LOMBARDIA"/>
     <s v="tdp01.asp"/>
     <d v="2021-02-11T16:19:16"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -831,12 +836,12 @@
   </r>
   <r>
     <n v="17"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="VOG"/>
     <s v="LOMBARDIA"/>
     <s v="vog01.asp"/>
     <d v="2021-02-11T16:22:13"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -846,12 +851,12 @@
   </r>
   <r>
     <n v="18"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="BAR"/>
     <s v="LOMBARDIA"/>
     <s v="bar01.asp"/>
     <d v="2021-02-11T22:02:18"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="1"/>
@@ -861,12 +866,12 @@
   </r>
   <r>
     <n v="19"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-11T22:42:17"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -876,12 +881,12 @@
   </r>
   <r>
     <n v="20"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-11T22:43:32"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -891,12 +896,12 @@
   </r>
   <r>
     <n v="21"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="MLA"/>
     <s v="LOMBARDIA"/>
     <s v="mla01.asp"/>
     <d v="2021-02-11T22:55:37"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -906,12 +911,12 @@
   </r>
   <r>
     <n v="22"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-12T00:31:51"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -921,12 +926,12 @@
   </r>
   <r>
     <n v="23"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-12T01:14:26"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -936,12 +941,12 @@
   </r>
   <r>
     <n v="24"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="spumanti.asp"/>
     <d v="2021-02-12T01:14:32"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -951,12 +956,12 @@
   </r>
   <r>
     <n v="25"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="bon01.asp?M=true"/>
     <d v="2021-02-12T01:16:58"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -966,12 +971,12 @@
   </r>
   <r>
     <n v="26"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="about_us.asp"/>
     <d v="2021-02-12T01:30:38"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -981,12 +986,12 @@
   </r>
   <r>
     <n v="27"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-12T15:52:20"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -996,12 +1001,12 @@
   </r>
   <r>
     <n v="28"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="COR"/>
     <s v="LOMBARDIA"/>
     <s v="cor01.asp"/>
     <d v="2021-02-12T17:20:56"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1011,12 +1016,12 @@
   </r>
   <r>
     <n v="29"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="COR"/>
     <s v="LOMBARDIA"/>
     <s v="cor01.asp"/>
     <d v="2021-02-12T18:31:57"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1026,12 +1031,12 @@
   </r>
   <r>
     <n v="30"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="BAR"/>
     <s v="LOMBARDIA"/>
     <s v="bar01.asp"/>
     <d v="2021-02-12T18:49:23"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1041,12 +1046,12 @@
   </r>
   <r>
     <n v="31"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="PGG"/>
     <s v="LOMBARDIA"/>
     <s v="pgg01.asp"/>
     <d v="2021-02-12T18:52:02"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1056,12 +1061,12 @@
   </r>
   <r>
     <n v="32"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="PGG"/>
     <s v="LOMBARDIA"/>
     <s v="pgg01.asp"/>
     <d v="2021-02-12T18:56:36"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1071,12 +1076,12 @@
   </r>
   <r>
     <n v="33"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll01.asp"/>
     <d v="2021-02-12T18:56:44"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1086,12 +1091,12 @@
   </r>
   <r>
     <n v="34"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll02.asp"/>
     <d v="2021-02-12T18:58:54"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1101,12 +1106,12 @@
   </r>
   <r>
     <n v="35"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll01.asp"/>
     <d v="2021-02-12T19:00:12"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1116,12 +1121,12 @@
   </r>
   <r>
     <n v="36"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll02.asp"/>
     <d v="2021-02-12T19:00:15"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1131,12 +1136,12 @@
   </r>
   <r>
     <n v="37"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll01.asp"/>
     <d v="2021-02-12T19:07:32"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1146,12 +1151,12 @@
   </r>
   <r>
     <n v="38"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll02.asp"/>
     <d v="2021-02-12T19:08:32"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1161,12 +1166,12 @@
   </r>
   <r>
     <n v="39"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-13T13:31:56"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1176,12 +1181,12 @@
   </r>
   <r>
     <n v="40"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="MLA"/>
     <s v="LOMBARDIA"/>
     <s v="mla01.asp"/>
     <d v="2021-02-13T13:32:08"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1191,12 +1196,12 @@
   </r>
   <r>
     <n v="41"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-13T13:32:58"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1206,12 +1211,12 @@
   </r>
   <r>
     <n v="42"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="MLA"/>
     <s v="LOMBARDIA"/>
     <s v="mla01.asp"/>
     <d v="2021-02-13T13:33:10"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1221,12 +1226,12 @@
   </r>
   <r>
     <n v="43"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-13T13:41:24"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1236,12 +1241,12 @@
   </r>
   <r>
     <n v="44"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="delicatesse.asp"/>
     <d v="2021-02-13T13:41:39"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1251,12 +1256,12 @@
   </r>
   <r>
     <n v="45"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="spumanti.asp"/>
     <d v="2021-02-13T13:42:04"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1266,12 +1271,12 @@
   </r>
   <r>
     <n v="46"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="delicatesse.asp"/>
     <d v="2021-02-13T13:42:10"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1281,12 +1286,12 @@
   </r>
   <r>
     <n v="47"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="PAS"/>
     <s v="LOMBARDIA"/>
     <s v="pasta.asp"/>
     <d v="2021-02-13T13:42:12"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1296,12 +1301,12 @@
   </r>
   <r>
     <n v="48"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="COR"/>
     <s v="LOMBARDIA"/>
     <s v="cor01.asp"/>
     <d v="2021-02-13T13:44:30"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1311,12 +1316,12 @@
   </r>
   <r>
     <n v="49"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="PGG"/>
     <s v="LOMBARDIA"/>
     <s v="pgg01.asp"/>
     <d v="2021-02-13T13:45:09"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1326,12 +1331,12 @@
   </r>
   <r>
     <n v="50"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="PGG"/>
     <s v="LOMBARDIA"/>
     <s v="pgg02.asp"/>
     <d v="2021-02-13T13:45:52"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1341,12 +1346,12 @@
   </r>
   <r>
     <n v="51"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="PGG"/>
     <s v="LOMBARDIA"/>
     <s v="pgg03.asp"/>
     <d v="2021-02-13T13:46:15"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1356,12 +1361,12 @@
   </r>
   <r>
     <n v="52"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="PGG"/>
     <s v="LOMBARDIA"/>
     <s v="pgg04.asp"/>
     <d v="2021-02-13T13:46:53"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1371,12 +1376,12 @@
   </r>
   <r>
     <n v="53"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-13T13:50:04"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1386,12 +1391,12 @@
   </r>
   <r>
     <n v="54"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="CAF"/>
     <s v="LOMBARDIA"/>
     <s v="caffe.asp"/>
     <d v="2021-02-13T13:50:36"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1401,12 +1406,12 @@
   </r>
   <r>
     <n v="55"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="CAF"/>
     <s v="LOMBARDIA"/>
     <s v="caffe.asp"/>
     <d v="2021-02-13T13:51:12"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1416,12 +1421,12 @@
   </r>
   <r>
     <n v="56"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="CAF"/>
     <s v="LOMBARDIA"/>
     <s v="caffe.asp"/>
     <d v="2021-02-13T13:51:13"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1431,12 +1436,12 @@
   </r>
   <r>
     <n v="57"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-13T14:06:22"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1446,12 +1451,12 @@
   </r>
   <r>
     <n v="58"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="SIL"/>
     <s v="LOMBARDIA"/>
     <s v="sil01.asp"/>
     <d v="2021-02-13T14:07:38"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1461,12 +1466,12 @@
   </r>
   <r>
     <n v="59"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="default.asp"/>
     <d v="2021-02-13T22:52:13"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1476,12 +1481,12 @@
   </r>
   <r>
     <n v="60"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="description_it.asp"/>
     <d v="2021-02-13T22:52:35"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1491,12 +1496,12 @@
   </r>
   <r>
     <n v="61"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="default.asp"/>
     <d v="2021-02-13T22:55:17"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1506,12 +1511,12 @@
   </r>
   <r>
     <n v="62"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="default.asp"/>
     <d v="2021-02-13T22:57:21"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1521,12 +1526,12 @@
   </r>
   <r>
     <n v="63"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="description_it.asp"/>
     <d v="2021-02-13T22:57:31"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1536,12 +1541,12 @@
   </r>
   <r>
     <n v="64"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="default.asp"/>
     <d v="2021-02-13T22:57:39"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1551,12 +1556,12 @@
   </r>
   <r>
     <n v="65"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="description_en.asp"/>
     <d v="2021-02-13T22:57:41"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1566,12 +1571,12 @@
   </r>
   <r>
     <n v="66"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="default.asp"/>
     <d v="2021-02-13T22:57:45"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1581,12 +1586,12 @@
   </r>
   <r>
     <n v="67"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="description_de.asp"/>
     <d v="2021-02-13T22:57:51"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1596,12 +1601,12 @@
   </r>
   <r>
     <n v="68"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="description_de.asp"/>
     <d v="2021-02-13T22:59:13"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1611,12 +1616,12 @@
   </r>
   <r>
     <n v="69"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="description_de.asp"/>
     <d v="2021-02-13T22:59:33"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1626,12 +1631,12 @@
   </r>
   <r>
     <n v="70"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="default.asp"/>
     <d v="2021-02-13T23:00:00"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1641,12 +1646,12 @@
   </r>
   <r>
     <n v="71"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="bon01.asp?M=true"/>
     <d v="2021-02-13T23:48:34"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1656,12 +1661,12 @@
   </r>
   <r>
     <n v="72"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="bon01.asp?M=true"/>
     <d v="2021-02-13T23:48:43"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1671,12 +1676,12 @@
   </r>
   <r>
     <n v="73"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="bon01.asp?M=true"/>
     <d v="2021-02-13T23:54:18"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1686,12 +1691,12 @@
   </r>
   <r>
     <n v="74"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="BAR"/>
     <s v="LOMBARDIA"/>
     <s v="bar01.asp"/>
     <d v="2021-02-19T14:27:52"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="en-us,_x0009_en;q=0.5"/>
     <b v="0"/>
@@ -1701,12 +1706,12 @@
   </r>
   <r>
     <n v="75"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll01.asp"/>
     <d v="2021-02-19T20:00:19"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1716,12 +1721,12 @@
   </r>
   <r>
     <n v="76"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll01.asp"/>
     <d v="2021-02-19T20:00:29"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1731,12 +1736,12 @@
   </r>
   <r>
     <n v="77"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll01.asp"/>
     <d v="2021-02-19T20:00:31"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1746,12 +1751,12 @@
   </r>
   <r>
     <n v="78"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-19T20:01:23"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1761,12 +1766,12 @@
   </r>
   <r>
     <n v="79"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="CBE"/>
     <s v="LOMBARDIA"/>
     <s v="cbe01.asp"/>
     <d v="2021-02-19T20:01:28"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="it"/>
     <b v="0"/>
@@ -1776,12 +1781,12 @@
   </r>
   <r>
     <n v="80"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="TRA"/>
     <s v="LOMBARDIA"/>
     <s v="tra02.asp"/>
     <d v="2021-02-19T20:35:54"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1791,12 +1796,12 @@
   </r>
   <r>
     <n v="81"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="TDP"/>
     <s v="LOMBARDIA"/>
     <s v="tdp01.asp"/>
     <d v="2021-02-19T20:54:42"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1806,12 +1811,12 @@
   </r>
   <r>
     <n v="82"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="MCE"/>
     <s v="LOMBARDIA"/>
     <s v="mce01.asp"/>
     <d v="2021-02-19T23:08:46"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1821,12 +1826,12 @@
   </r>
   <r>
     <n v="83"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="BON"/>
     <s v="LOMBARDIA"/>
     <s v="bon01.asp"/>
     <d v="2021-02-19T23:35:58"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1836,12 +1841,12 @@
   </r>
   <r>
     <n v="84"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="VOG"/>
     <s v="LOMBARDIA"/>
     <s v="vog01.asp"/>
     <d v="2021-02-20T05:20:29"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1851,12 +1856,12 @@
   </r>
   <r>
     <n v="85"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="MCE"/>
     <s v="LOMBARDIA"/>
     <s v="mce04.asp"/>
     <d v="2021-02-20T06:47:54"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="en-us"/>
     <b v="1"/>
@@ -1866,12 +1871,12 @@
   </r>
   <r>
     <n v="86"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="PGG"/>
     <s v="LOMBARDIA"/>
     <s v="pgg04.asp"/>
     <d v="2021-02-20T06:48:37"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1881,12 +1886,12 @@
   </r>
   <r>
     <n v="87"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="MCE"/>
     <s v="LOMBARDIA"/>
     <s v="mce01.asp"/>
     <d v="2021-02-20T06:49:41"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="en-us"/>
     <b v="1"/>
@@ -1896,12 +1901,12 @@
   </r>
   <r>
     <n v="88"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SER"/>
     <s v="LOMBARDIA"/>
     <s v="ser04.asp"/>
     <d v="2021-02-20T08:13:55"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1911,12 +1916,12 @@
   </r>
   <r>
     <n v="89"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="SNI"/>
     <s v="LOMBARDIA"/>
     <s v="sni01.asp"/>
     <d v="2021-02-20T10:49:00"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1926,12 +1931,12 @@
   </r>
   <r>
     <n v="90"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="ERA"/>
     <s v="LOMBARDIA"/>
     <s v="era01.asp"/>
     <d v="2021-02-20T12:42:33"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1941,12 +1946,12 @@
   </r>
   <r>
     <n v="91"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="TDP"/>
     <s v="LOMBARDIA"/>
     <s v="tdp01.asp"/>
     <d v="2021-02-20T14:17:17"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="en-gb"/>
     <b v="1"/>
@@ -1956,12 +1961,12 @@
   </r>
   <r>
     <n v="92"/>
-    <s v="website1.it"/>
+    <x v="0"/>
     <s v="PGG"/>
     <s v="LOMBARDIA"/>
     <s v="pgg01.asp"/>
     <d v="2021-02-20T15:27:29"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v=""/>
     <b v="1"/>
@@ -1971,12 +1976,12 @@
   </r>
   <r>
     <n v="93"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="BRU"/>
     <s v="LOMBARDIA"/>
     <s v="bru01.asp"/>
     <d v="2021-02-20T15:43:45"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="en-us"/>
     <b v="0"/>
@@ -1986,12 +1991,12 @@
   </r>
   <r>
     <n v="94"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-20T16:38:09"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="nl"/>
     <b v="0"/>
@@ -2001,12 +2006,12 @@
   </r>
   <r>
     <n v="95"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="vino.asp"/>
     <d v="2021-02-20T16:38:44"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="nl"/>
     <b v="0"/>
@@ -2016,12 +2021,12 @@
   </r>
   <r>
     <n v="96"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="BRD"/>
     <s v="LOMBARDIA"/>
     <s v="brd01.asp"/>
     <d v="2021-02-20T16:38:54"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="nl"/>
     <b v="0"/>
@@ -2031,12 +2036,12 @@
   </r>
   <r>
     <n v="97"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="AIM"/>
     <s v="LOMBARDIA"/>
     <s v="aim01.asp"/>
     <d v="2021-02-20T16:39:51"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="nl"/>
     <b v="0"/>
@@ -2046,12 +2051,12 @@
   </r>
   <r>
     <n v="98"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="FEU"/>
     <s v="LOMBARDIA"/>
     <s v="feu01.asp"/>
     <d v="2021-02-20T16:40:03"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="nl"/>
     <b v="0"/>
@@ -2061,12 +2066,12 @@
   </r>
   <r>
     <n v="99"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll01.asp"/>
     <d v="2021-02-20T16:40:12"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="nl"/>
     <b v="0"/>
@@ -2076,12 +2081,12 @@
   </r>
   <r>
     <n v="100"/>
-    <s v="website2.it"/>
+    <x v="1"/>
     <s v="CLL"/>
     <s v="LOMBARDIA"/>
     <s v="cll02.asp"/>
     <d v="2021-02-20T16:40:20"/>
-    <n v="2021"/>
+    <x v="0"/>
     <n v="2"/>
     <s v="nl"/>
     <b v="0"/>
@@ -2093,16 +2098,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{037E66B8-273A-49E4-9A75-BB9559514E0D}" name="PivotTable2" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{037E66B8-273A-49E4-9A75-BB9559514E0D}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="22" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2147,7 +2163,7 @@
     <field x="10"/>
     <field x="11"/>
   </rowFields>
-  <rowItems count="28">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -2182,9 +2198,6 @@
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
       <x v="11"/>
     </i>
     <i r="1">
@@ -2200,28 +2213,10 @@
       <x v="15"/>
     </i>
     <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
       <x v="22"/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
     </i>
     <i r="1">
       <x v="20"/>
@@ -2236,6 +2231,10 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="0" hier="-1"/>
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Count of ID" fld="0" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
@@ -2592,61 +2591,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC0F100-26DE-4B4F-A6FC-E93764465727}">
-  <dimension ref="A3:B31"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -2654,7 +2661,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -2662,7 +2669,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -2670,7 +2677,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -2678,7 +2685,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -2686,7 +2693,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -2694,7 +2701,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -2702,7 +2709,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -2750,90 +2757,42 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>121</v>
+      <c r="A22" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B22" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
+      <c r="A25" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B25" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="5">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
